--- a/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 1 - Alura.xlsx
+++ b/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 1 - Alura.xlsx
@@ -3,7 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Fundamentos Data Analysis 1 - E" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Vendas por Mês" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Assinantes Newsletter" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Seguidores Twitter" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,9 +13,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Mês</t>
+  </si>
+  <si>
+    <t>Seguidores no Twitter</t>
+  </si>
+  <si>
+    <t>Assinatura Newsletter</t>
+  </si>
+  <si>
+    <t>Aumento no número de assinantes</t>
+  </si>
+  <si>
+    <t>Aumento dos seguidores no Twitter</t>
+  </si>
+  <si>
+    <t>Aceleração no número de assinantes</t>
+  </si>
+  <si>
+    <t>Aceleração dos seguidores no Twitter</t>
   </si>
   <si>
     <t>Vendas em mil R$</t>
@@ -35,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -43,6 +63,13 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font/>
   </fonts>
@@ -60,20 +87,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -113,7 +152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fundamentos Data Analysis 1 - E'!$B$1</c:f>
+              <c:f>'Vendas por Mês'!$B$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -128,21 +167,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Fundamentos Data Analysis 1 - E'!$A$2:$A$25</c:f>
+              <c:f>'Vendas por Mês'!$A$2:$A$25</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fundamentos Data Analysis 1 - E'!$B$2:$B$25</c:f>
+              <c:f>'Vendas por Mês'!$B$2:$B$25</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1461856248"/>
-        <c:axId val="554401443"/>
+        <c:axId val="1486166207"/>
+        <c:axId val="1052934806"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1461856248"/>
+        <c:axId val="1486166207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -174,10 +213,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554401443"/>
+        <c:crossAx val="1052934806"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="554401443"/>
+        <c:axId val="1052934806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -225,7 +264,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1461856248"/>
+        <c:crossAx val="1486166207"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -266,7 +305,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fundamentos Data Analysis 1 - E'!$C$1</c:f>
+              <c:f>'Vendas por Mês'!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -281,16 +320,16 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Fundamentos Data Analysis 1 - E'!$C$2:$C$24</c:f>
+              <c:f>'Vendas por Mês'!$C$2:$C$24</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1541625215"/>
-        <c:axId val="649027393"/>
+        <c:axId val="1648159081"/>
+        <c:axId val="1268754403"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1541625215"/>
+        <c:axId val="1648159081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -322,10 +361,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649027393"/>
+        <c:crossAx val="1268754403"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649027393"/>
+        <c:axId val="1268754403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1541625215"/>
+        <c:crossAx val="1648159081"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -414,7 +453,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fundamentos Data Analysis 1 - E'!$D$1</c:f>
+              <c:f>'Vendas por Mês'!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -429,16 +468,16 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Fundamentos Data Analysis 1 - E'!$D$2:$D$23</c:f>
+              <c:f>'Vendas por Mês'!$D$2:$D$23</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1167419702"/>
-        <c:axId val="2125442581"/>
+        <c:axId val="966257933"/>
+        <c:axId val="423559127"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1167419702"/>
+        <c:axId val="966257933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,10 +492,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125442581"/>
+        <c:crossAx val="423559127"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125442581"/>
+        <c:axId val="423559127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +543,905 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167419702"/>
+        <c:crossAx val="966257933"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Assinantes da Newsletter por mês</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Assinantes Newsletter'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Assinantes Newsletter'!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Assinantes Newsletter'!$B$2:$B$25</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="226665248"/>
+        <c:axId val="1965864138"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="226665248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1965864138"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1965864138"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total de Assinantes da Newsletter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226665248"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aumento no número de assinantes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Assinantes Newsletter'!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Assinantes Newsletter'!$C$2:$C$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="329011583"/>
+        <c:axId val="1732654794"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="329011583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732654794"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1732654794"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Aumento No Assinantes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329011583"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aceleração no número de assinantes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Assinantes Newsletter'!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Assinantes Newsletter'!$D$2:$D$23</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="496030285"/>
+        <c:axId val="755942207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="496030285"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755942207"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="755942207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Aceleração No Assinantes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496030285"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Seguidores no Twitter por Mês</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Seguidores Twitter'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Seguidores Twitter'!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Seguidores Twitter'!$B$2:$B$25</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1209211566"/>
+        <c:axId val="1058956488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1209211566"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058956488"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1058956488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Seguidores no Twitter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209211566"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aumento dos seguidores no Twitter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Seguidores Twitter'!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Seguidores Twitter'!$C$2:$C$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2111895292"/>
+        <c:axId val="774451405"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2111895292"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774451405"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="774451405"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Aumento No Seguidores Twitter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111895292"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aceleração dos seguidores no Twitter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Seguidores Twitter'!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Seguidores Twitter'!$D$2:$D$23</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="725822081"/>
+        <c:axId val="2125732673"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="725822081"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2125732673"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125732673"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Aceleração No seguidores Twitter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725822081"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -528,7 +1465,7 @@
     <xdr:ext cx="6105525" cy="2171700"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -553,7 +1490,7 @@
     <xdr:ext cx="6115050" cy="2600325"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -578,7 +1515,167 @@
     <xdr:ext cx="6143625" cy="2543175"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvPr id="8" name="Chart 8" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7696200" cy="3076575"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7762875" cy="2905125"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7820025" cy="2495550"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7191375" cy="2705100"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7029450" cy="2743200"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7143750" cy="2847975"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -611,24 +1708,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>10.0</v>
       </c>
       <c r="C2">
@@ -641,10 +1738,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>41671.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>20.0</v>
       </c>
       <c r="C3">
@@ -657,10 +1754,10 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>41699.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>33.0</v>
       </c>
       <c r="C4">
@@ -673,10 +1770,10 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>41730.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>47.0</v>
       </c>
       <c r="C5">
@@ -689,10 +1786,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>41760.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>63.0</v>
       </c>
       <c r="C6">
@@ -705,10 +1802,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>41791.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>81.0</v>
       </c>
       <c r="C7">
@@ -721,10 +1818,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>41821.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="9">
         <v>101.0</v>
       </c>
       <c r="C8">
@@ -737,10 +1834,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>41852.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <v>124.0</v>
       </c>
       <c r="C9">
@@ -753,10 +1850,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>41883.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="9">
         <v>148.0</v>
       </c>
       <c r="C10">
@@ -769,10 +1866,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <v>41913.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <v>174.0</v>
       </c>
       <c r="C11">
@@ -785,10 +1882,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="8">
         <v>41944.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <v>201.0</v>
       </c>
       <c r="C12">
@@ -801,10 +1898,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="8">
         <v>41974.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="9">
         <v>230.0</v>
       </c>
       <c r="C13">
@@ -817,10 +1914,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="8">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="9">
         <v>261.0</v>
       </c>
       <c r="C14">
@@ -833,10 +1930,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="8">
         <v>42036.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="9">
         <v>293.0</v>
       </c>
       <c r="C15">
@@ -849,10 +1946,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="8">
         <v>42064.0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="9">
         <v>326.0</v>
       </c>
       <c r="C16">
@@ -865,10 +1962,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="8">
         <v>42095.0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="9">
         <v>362.0</v>
       </c>
       <c r="C17">
@@ -881,10 +1978,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="8">
         <v>42125.0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="9">
         <v>400.0</v>
       </c>
       <c r="C18">
@@ -897,10 +1994,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="8">
         <v>42156.0</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="9">
         <v>440.0</v>
       </c>
       <c r="C19">
@@ -913,10 +2010,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="8">
         <v>42186.0</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="9">
         <v>483.0</v>
       </c>
       <c r="C20">
@@ -929,10 +2026,10 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="8">
         <v>42217.0</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="9">
         <v>527.0</v>
       </c>
       <c r="C21">
@@ -945,10 +2042,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="8">
         <v>42248.0</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <v>573.0</v>
       </c>
       <c r="C22">
@@ -961,10 +2058,10 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="8">
         <v>42278.0</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="9">
         <v>621.0</v>
       </c>
       <c r="C23">
@@ -975,15 +2072,15 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>4</v>
+      <c r="E23" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="8">
         <v>42309.0</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="9">
         <v>670.0</v>
       </c>
       <c r="C24">
@@ -992,612 +2089,612 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="8">
         <v>42339.0</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="9">
         <v>721.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
+      <c r="A29" s="8"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
+      <c r="A37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
+      <c r="A38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
+      <c r="A40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
+      <c r="A41" s="8"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
+      <c r="A42" s="8"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
+      <c r="A43" s="8"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
+      <c r="A44" s="8"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4"/>
+      <c r="A45" s="8"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
+      <c r="A46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
+      <c r="A48" s="8"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
+      <c r="A49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
+      <c r="A50" s="8"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
+      <c r="A53" s="8"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
+      <c r="A54" s="8"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
+      <c r="A57" s="8"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4"/>
+      <c r="A58" s="8"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4"/>
+      <c r="A59" s="8"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
+      <c r="A60" s="8"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4"/>
+      <c r="A72" s="8"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
+      <c r="A73" s="8"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
+      <c r="A75" s="8"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
+      <c r="A77" s="8"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
+      <c r="A78" s="8"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="4"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="4"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4"/>
+      <c r="A89" s="8"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4"/>
+      <c r="A91" s="8"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4"/>
+      <c r="A93" s="8"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4"/>
+      <c r="A94" s="8"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4"/>
+      <c r="A97" s="8"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4"/>
+      <c r="A98" s="8"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4"/>
+      <c r="A99" s="8"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="4"/>
+      <c r="A101" s="8"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="4"/>
+      <c r="A102" s="8"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="4"/>
+      <c r="A103" s="8"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="4"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="4"/>
+      <c r="A105" s="8"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="4"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="4"/>
+      <c r="A107" s="8"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="4"/>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="4"/>
+      <c r="A109" s="8"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="4"/>
+      <c r="A110" s="8"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="4"/>
+      <c r="A111" s="8"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="4"/>
+      <c r="A112" s="8"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="4"/>
+      <c r="A113" s="8"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="4"/>
+      <c r="A114" s="8"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="4"/>
+      <c r="A115" s="8"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="4"/>
+      <c r="A116" s="8"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="4"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="4"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="4"/>
+      <c r="A119" s="8"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="4"/>
+      <c r="A120" s="8"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="4"/>
+      <c r="A121" s="8"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="4"/>
+      <c r="A122" s="8"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="4"/>
+      <c r="A123" s="8"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="4"/>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="4"/>
+      <c r="A125" s="8"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="4"/>
+      <c r="A126" s="8"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="4"/>
+      <c r="A127" s="8"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="4"/>
+      <c r="A128" s="8"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="4"/>
+      <c r="A129" s="8"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="4"/>
+      <c r="A130" s="8"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="4"/>
+      <c r="A131" s="8"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="4"/>
+      <c r="A132" s="8"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="4"/>
+      <c r="A133" s="8"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="4"/>
+      <c r="A134" s="8"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="4"/>
+      <c r="A135" s="8"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="4"/>
+      <c r="A136" s="8"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="4"/>
+      <c r="A137" s="8"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="4"/>
+      <c r="A138" s="8"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="4"/>
+      <c r="A139" s="8"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="4"/>
+      <c r="A140" s="8"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="4"/>
+      <c r="A141" s="8"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="4"/>
+      <c r="A142" s="8"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="4"/>
+      <c r="A143" s="8"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="4"/>
+      <c r="A144" s="8"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="4"/>
+      <c r="A145" s="8"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="4"/>
+      <c r="A146" s="8"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="4"/>
+      <c r="A147" s="8"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="4"/>
+      <c r="A148" s="8"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="4"/>
+      <c r="A149" s="8"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="4"/>
+      <c r="A150" s="8"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="4"/>
+      <c r="A151" s="8"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="4"/>
+      <c r="A152" s="8"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="4"/>
+      <c r="A153" s="8"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="4"/>
+      <c r="A154" s="8"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="4"/>
+      <c r="A155" s="8"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="4"/>
+      <c r="A156" s="8"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="4"/>
+      <c r="A157" s="8"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="4"/>
+      <c r="A158" s="8"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="4"/>
+      <c r="A159" s="8"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="4"/>
+      <c r="A160" s="8"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="4"/>
+      <c r="A161" s="8"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="4"/>
+      <c r="A162" s="8"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="4"/>
+      <c r="A163" s="8"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="4"/>
+      <c r="A164" s="8"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="4"/>
+      <c r="A165" s="8"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="4"/>
+      <c r="A166" s="8"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="4"/>
+      <c r="A167" s="8"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="4"/>
+      <c r="A168" s="8"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="4"/>
+      <c r="A169" s="8"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="4"/>
+      <c r="A170" s="8"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="4"/>
+      <c r="A171" s="8"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="4"/>
+      <c r="A172" s="8"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="4"/>
+      <c r="A173" s="8"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="4"/>
+      <c r="A174" s="8"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="4"/>
+      <c r="A175" s="8"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="4"/>
+      <c r="A176" s="8"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="4"/>
+      <c r="A177" s="8"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="4"/>
+      <c r="A178" s="8"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="4"/>
+      <c r="A179" s="8"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="4"/>
+      <c r="A180" s="8"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="4"/>
+      <c r="A181" s="8"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="4"/>
+      <c r="A182" s="8"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="4"/>
+      <c r="A183" s="8"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="4"/>
+      <c r="A184" s="8"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="4"/>
+      <c r="A185" s="8"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="4"/>
+      <c r="A186" s="8"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="4"/>
+      <c r="A187" s="8"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="4"/>
+      <c r="A188" s="8"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="4"/>
+      <c r="A189" s="8"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="4"/>
+      <c r="A190" s="8"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="4"/>
+      <c r="A191" s="8"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="4"/>
+      <c r="A192" s="8"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="4"/>
+      <c r="A193" s="8"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="4"/>
+      <c r="A194" s="8"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="4"/>
+      <c r="A195" s="8"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="4"/>
+      <c r="A196" s="8"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="4"/>
+      <c r="A197" s="8"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="4"/>
+      <c r="A198" s="8"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="4"/>
+      <c r="A199" s="8"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="4"/>
+      <c r="A200" s="8"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="4"/>
+      <c r="A201" s="8"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="4"/>
+      <c r="A202" s="8"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="4"/>
+      <c r="A203" s="8"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="4"/>
+      <c r="A204" s="8"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="4"/>
+      <c r="A205" s="8"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="4"/>
+      <c r="A206" s="8"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="4"/>
+      <c r="A207" s="8"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="4"/>
+      <c r="A208" s="8"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="4"/>
+      <c r="A209" s="8"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="4"/>
+      <c r="A210" s="8"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="4"/>
+      <c r="A211" s="8"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="4"/>
+      <c r="A212" s="8"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="4"/>
+      <c r="A213" s="8"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="4"/>
+      <c r="A214" s="8"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="4"/>
+      <c r="A215" s="8"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="4"/>
+      <c r="A216" s="8"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="4"/>
+      <c r="A217" s="8"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="4"/>
+      <c r="A218" s="8"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="4"/>
+      <c r="A219" s="8"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="4"/>
+      <c r="A220" s="8"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="4"/>
+      <c r="A221" s="8"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="4"/>
+      <c r="A222" s="8"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="4"/>
+      <c r="A223" s="8"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="4"/>
+      <c r="A224" s="8"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="4"/>
+      <c r="A225" s="8"/>
     </row>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -2377,4 +3474,816 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="20.71"/>
+    <col customWidth="1" min="3" max="3" width="32.14"/>
+    <col customWidth="1" min="4" max="4" width="34.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>41640.0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:D2" si="1">B3-B2</f>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>41671.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D3" si="2">B4-B3</f>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>41699.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D4" si="3">B5-B4</f>
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>41730.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D5" si="4">B6-B5</f>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>41760.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>49.0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:D6" si="5">B7-B6</f>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>41791.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>66.0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="6">B8-B7</f>
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>41821.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="7">B9-B8</f>
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>41852.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>107.0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="8">B10-B9</f>
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>41883.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>132.0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:D10" si="9">B11-B10</f>
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>41913.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="10">B12-B11</f>
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4">
+        <v>41944.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>190.0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="11">B13-B12</f>
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>41974.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>221.0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="12">B14-B13</f>
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>42005.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>252.0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="13">B15-B14</f>
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4">
+        <v>42036.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>283.0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="14">B16-B15</f>
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="14"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4">
+        <v>42064.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>313.0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="15">B17-B16</f>
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>42095.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>341.0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="16">B18-B17</f>
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>42125.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>367.0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:D18" si="17">B19-B18</f>
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <v>42156.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>390.0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="18">B20-B19</f>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="18"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
+        <v>42186.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>410.0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:D20" si="19">B21-B20</f>
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="19"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
+        <v>42217.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>426.0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D21" si="20">B22-B21</f>
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="20"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>42248.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>437.0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="21">B23-B22</f>
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="21"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
+        <v>42278.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>444.0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="22">B24-B23</f>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>42309.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>449.0</v>
+      </c>
+      <c r="C24">
+        <f>B25-B24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>42339.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>454.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="20.57"/>
+    <col customWidth="1" min="3" max="3" width="32.71"/>
+    <col customWidth="1" min="4" max="4" width="34.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>41640.0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:D2" si="1">B3-B2</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>41671.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D3" si="2">B4-B3</f>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>41699.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D4" si="3">B5-B4</f>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>41730.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D5" si="4">B6-B5</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>41760.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:D6" si="5">B7-B6</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>41791.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="6">B8-B7</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>41821.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="7">B9-B8</f>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>41852.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="8">B10-B9</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>41883.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:D10" si="9">B11-B10</f>
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>41913.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>62.0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="10">B12-B11</f>
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4">
+        <v>41944.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>79.0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="11">B13-B12</f>
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>41974.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>99.0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="12">B14-B13</f>
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>42005.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>119.0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="13">B15-B14</f>
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4">
+        <v>42036.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>142.0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="14">B16-B15</f>
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="14"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4">
+        <v>42064.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>165.0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="15">B17-B16</f>
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>42095.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>183.0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="16">B18-B17</f>
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>42125.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>203.0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:D18" si="17">B19-B18</f>
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <v>42156.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>225.0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="18">B20-B19</f>
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
+        <v>42186.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>244.0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:D20" si="19">B21-B20</f>
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
+        <v>42217.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>262.0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D21" si="20">B22-B21</f>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>42248.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>282.0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="21">B23-B22</f>
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
+        <v>42278.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>301.0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="22">B24-B23</f>
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>42309.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>325.0</v>
+      </c>
+      <c r="C24">
+        <f>B25-B24</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>42339.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>351.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 1 - Alura.xlsx
+++ b/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 1 - Alura.xlsx
@@ -6,6 +6,8 @@
     <sheet state="visible" name="Vendas por Mês" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Assinantes Newsletter" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Seguidores Twitter" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Vendas Quantidade por dia" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Vendas em R$" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Mês</t>
   </si>
@@ -21,16 +23,7 @@
     <t>Seguidores no Twitter</t>
   </si>
   <si>
-    <t>Assinatura Newsletter</t>
-  </si>
-  <si>
-    <t>Aumento no número de assinantes</t>
-  </si>
-  <si>
     <t>Aumento dos seguidores no Twitter</t>
-  </si>
-  <si>
-    <t>Aceleração no número de assinantes</t>
   </si>
   <si>
     <t>Aceleração dos seguidores no Twitter</t>
@@ -47,13 +40,41 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Assinatura Newsletter</t>
+  </si>
+  <si>
+    <t>Aumento no número de assinantes</t>
+  </si>
+  <si>
+    <t>Aceleração no número de assinantes</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Vendas Quantidade de produto vendido</t>
+  </si>
+  <si>
+    <t>Vendas em R$</t>
+  </si>
+  <si>
+    <t>Dias úteis</t>
+  </si>
+  <si>
+    <t>Vendas por dia útil</t>
+  </si>
+  <si>
+    <t>Aumento de Vendas por dia útil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -87,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -100,20 +121,26 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -177,11 +204,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1486166207"/>
-        <c:axId val="1052934806"/>
+        <c:axId val="1956541801"/>
+        <c:axId val="1919053557"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1486166207"/>
+        <c:axId val="1956541801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -213,10 +240,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1052934806"/>
+        <c:crossAx val="1919053557"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1052934806"/>
+        <c:axId val="1919053557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,7 +291,609 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1486166207"/>
+        <c:crossAx val="1956541801"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Vendas em Quantidade por dia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vendas Quantidade por dia'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Vendas Quantidade por dia'!$A$2:$A$60</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vendas Quantidade por dia'!$B$2:$B$60</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1958910643"/>
+        <c:axId val="1234859363"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1958910643"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo (em dias)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234859363"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1234859363"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Vendas (em quantidade de produtos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958910643"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Vendas em R$ por Mês</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vendas em R$'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Vendas em R$'!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vendas em R$'!$B$2:$B$25</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="413435579"/>
+        <c:axId val="980687328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413435579"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Mês</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980687328"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="980687328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Vendas em R$</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413435579"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Vendas por dia útil</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vendas em R$'!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vendas em R$'!$D$2:$D$25</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1139149712"/>
+        <c:axId val="796959784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1139149712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796959784"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796959784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Vendas por dia útil</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139149712"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aumento de Vendas por dia útil</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vendas em R$'!$E$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vendas em R$'!$E$2:$E$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1536904721"/>
+        <c:axId val="1291302756"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1536904721"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291302756"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1291302756"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Aumento de vendas por dia útil</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1536904721"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -325,11 +954,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1648159081"/>
-        <c:axId val="1268754403"/>
+        <c:axId val="461092183"/>
+        <c:axId val="1927993042"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1648159081"/>
+        <c:axId val="461092183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,10 +990,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1268754403"/>
+        <c:crossAx val="1927993042"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1268754403"/>
+        <c:axId val="1927993042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +1041,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648159081"/>
+        <c:crossAx val="461092183"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -473,11 +1102,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="966257933"/>
-        <c:axId val="423559127"/>
+        <c:axId val="2020559538"/>
+        <c:axId val="570560958"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="966257933"/>
+        <c:axId val="2020559538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,10 +1121,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423559127"/>
+        <c:crossAx val="570560958"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423559127"/>
+        <c:axId val="570560958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +1172,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966257933"/>
+        <c:crossAx val="2020559538"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -609,11 +1238,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="226665248"/>
-        <c:axId val="1965864138"/>
+        <c:axId val="1714166508"/>
+        <c:axId val="1425428686"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="226665248"/>
+        <c:axId val="1714166508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,10 +1274,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1965864138"/>
+        <c:crossAx val="1425428686"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1965864138"/>
+        <c:axId val="1425428686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +1325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226665248"/>
+        <c:crossAx val="1714166508"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -757,11 +1386,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="329011583"/>
-        <c:axId val="1732654794"/>
+        <c:axId val="2044307724"/>
+        <c:axId val="450478907"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329011583"/>
+        <c:axId val="2044307724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,10 +1422,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1732654794"/>
+        <c:crossAx val="450478907"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1732654794"/>
+        <c:axId val="450478907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +1473,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329011583"/>
+        <c:crossAx val="2044307724"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -905,11 +1534,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="496030285"/>
-        <c:axId val="755942207"/>
+        <c:axId val="1353107793"/>
+        <c:axId val="810362021"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="496030285"/>
+        <c:axId val="1353107793"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,10 +1570,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755942207"/>
+        <c:crossAx val="810362021"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="755942207"/>
+        <c:axId val="810362021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1621,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496030285"/>
+        <c:crossAx val="1353107793"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1058,11 +1687,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1209211566"/>
-        <c:axId val="1058956488"/>
+        <c:axId val="392453147"/>
+        <c:axId val="1721431495"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1209211566"/>
+        <c:axId val="392453147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,10 +1723,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058956488"/>
+        <c:crossAx val="1721431495"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1058956488"/>
+        <c:axId val="1721431495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1774,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1209211566"/>
+        <c:crossAx val="392453147"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1206,11 +1835,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2111895292"/>
-        <c:axId val="774451405"/>
+        <c:axId val="43107687"/>
+        <c:axId val="461623412"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111895292"/>
+        <c:axId val="43107687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,10 +1871,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774451405"/>
+        <c:crossAx val="461623412"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="774451405"/>
+        <c:axId val="461623412"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1922,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111895292"/>
+        <c:crossAx val="43107687"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1354,11 +1983,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="725822081"/>
-        <c:axId val="2125732673"/>
+        <c:axId val="1918175821"/>
+        <c:axId val="1983136492"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="725822081"/>
+        <c:axId val="1918175821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,10 +2019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125732673"/>
+        <c:crossAx val="1983136492"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125732673"/>
+        <c:axId val="1983136492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +2070,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725822081"/>
+        <c:crossAx val="1918175821"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1465,7 +2094,7 @@
     <xdr:ext cx="6105525" cy="2171700"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1490,7 +2119,7 @@
     <xdr:ext cx="6115050" cy="2600325"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1515,7 +2144,7 @@
     <xdr:ext cx="6143625" cy="2543175"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8" title="Gráfico"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1545,7 +2174,7 @@
     <xdr:ext cx="7696200" cy="3076575"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1595,7 +2224,7 @@
     <xdr:ext cx="7820025" cy="2495550"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 7" title="Gráfico"/>
+        <xdr:cNvPr id="8" name="Chart 8" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1650,7 +2279,7 @@
     <xdr:ext cx="7029450" cy="2743200"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1675,7 +2304,117 @@
     <xdr:ext cx="7143750" cy="2847975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
+        <xdr:cNvPr id="7" name="Chart 7" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8724900" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 10" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7067550" cy="3362325"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 9" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7181850" cy="2790825"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 11" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7191375" cy="2800350"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 12" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1708,17 +2447,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -2073,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3496,20 +4235,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>0.0</v>
       </c>
       <c r="C2">
@@ -3522,10 +4261,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>41671.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>10.0</v>
       </c>
       <c r="C3">
@@ -3538,10 +4277,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>41699.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>21.0</v>
       </c>
       <c r="C4">
@@ -3554,10 +4293,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>41730.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>34.0</v>
       </c>
       <c r="C5">
@@ -3570,10 +4309,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>41760.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>49.0</v>
       </c>
       <c r="C6">
@@ -3586,10 +4325,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>41791.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>66.0</v>
       </c>
       <c r="C7">
@@ -3602,10 +4341,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>41821.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>85.0</v>
       </c>
       <c r="C8">
@@ -3618,10 +4357,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>41852.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>107.0</v>
       </c>
       <c r="C9">
@@ -3634,10 +4373,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>41883.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>132.0</v>
       </c>
       <c r="C10">
@@ -3650,10 +4389,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>41913.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>160.0</v>
       </c>
       <c r="C11">
@@ -3666,10 +4405,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>41944.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>190.0</v>
       </c>
       <c r="C12">
@@ -3682,10 +4421,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>41974.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>221.0</v>
       </c>
       <c r="C13">
@@ -3698,10 +4437,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>252.0</v>
       </c>
       <c r="C14">
@@ -3714,10 +4453,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>42036.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>283.0</v>
       </c>
       <c r="C15">
@@ -3730,10 +4469,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>42064.0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>313.0</v>
       </c>
       <c r="C16">
@@ -3746,10 +4485,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>42095.0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>341.0</v>
       </c>
       <c r="C17">
@@ -3762,10 +4501,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>42125.0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>367.0</v>
       </c>
       <c r="C18">
@@ -3778,10 +4517,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>42156.0</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>390.0</v>
       </c>
       <c r="C19">
@@ -3794,10 +4533,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>42186.0</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>410.0</v>
       </c>
       <c r="C20">
@@ -3810,10 +4549,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>42217.0</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>426.0</v>
       </c>
       <c r="C21">
@@ -3826,10 +4565,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>42248.0</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>437.0</v>
       </c>
       <c r="C22">
@@ -3842,10 +4581,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>42278.0</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>444.0</v>
       </c>
       <c r="C23">
@@ -3858,10 +4597,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>42309.0</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>449.0</v>
       </c>
       <c r="C24">
@@ -3870,10 +4609,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>42339.0</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>454.0</v>
       </c>
     </row>
@@ -3905,17 +4644,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>0.0</v>
       </c>
       <c r="C2">
@@ -3928,10 +4667,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>41671.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>5.0</v>
       </c>
       <c r="C3">
@@ -3944,10 +4683,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>41699.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>11.0</v>
       </c>
       <c r="C4">
@@ -3960,10 +4699,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>41730.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>19.0</v>
       </c>
       <c r="C5">
@@ -3976,10 +4715,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>41760.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>24.0</v>
       </c>
       <c r="C6">
@@ -3992,10 +4731,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>41791.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>29.0</v>
       </c>
       <c r="C7">
@@ -4008,10 +4747,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>41821.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>31.0</v>
       </c>
       <c r="C8">
@@ -4024,10 +4763,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>41852.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>37.0</v>
       </c>
       <c r="C9">
@@ -4040,10 +4779,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>41883.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>47.0</v>
       </c>
       <c r="C10">
@@ -4056,10 +4795,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>41913.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>62.0</v>
       </c>
       <c r="C11">
@@ -4072,10 +4811,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>41944.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>79.0</v>
       </c>
       <c r="C12">
@@ -4088,10 +4827,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>41974.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>99.0</v>
       </c>
       <c r="C13">
@@ -4104,10 +4843,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>119.0</v>
       </c>
       <c r="C14">
@@ -4120,10 +4859,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>42036.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>142.0</v>
       </c>
       <c r="C15">
@@ -4136,10 +4875,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>42064.0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>165.0</v>
       </c>
       <c r="C16">
@@ -4152,10 +4891,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>42095.0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>183.0</v>
       </c>
       <c r="C17">
@@ -4168,10 +4907,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>42125.0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>203.0</v>
       </c>
       <c r="C18">
@@ -4184,10 +4923,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>42156.0</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>225.0</v>
       </c>
       <c r="C19">
@@ -4200,10 +4939,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>42186.0</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>244.0</v>
       </c>
       <c r="C20">
@@ -4216,10 +4955,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>42217.0</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>262.0</v>
       </c>
       <c r="C21">
@@ -4232,10 +4971,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>42248.0</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>282.0</v>
       </c>
       <c r="C22">
@@ -4248,10 +4987,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>42278.0</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>301.0</v>
       </c>
       <c r="C23">
@@ -4264,10 +5003,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>42309.0</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>325.0</v>
       </c>
       <c r="C24">
@@ -4276,11 +5015,1002 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>42339.0</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>351.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="36.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12">
+        <v>42005.0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12">
+        <v>42006.0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>42007.0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>42008.0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>42009.0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <v>42010.0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>42011.0</v>
+      </c>
+      <c r="B8" s="7">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>42012.0</v>
+      </c>
+      <c r="B9" s="7">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>42013.0</v>
+      </c>
+      <c r="B10" s="7">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>42014.0</v>
+      </c>
+      <c r="B11" s="7">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>42015.0</v>
+      </c>
+      <c r="B12" s="7">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>42016.0</v>
+      </c>
+      <c r="B13" s="7">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>42017.0</v>
+      </c>
+      <c r="B14" s="7">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12">
+        <v>42018.0</v>
+      </c>
+      <c r="B15" s="7">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>42019.0</v>
+      </c>
+      <c r="B16" s="7">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12">
+        <v>42020.0</v>
+      </c>
+      <c r="B17" s="7">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>42021.0</v>
+      </c>
+      <c r="B18" s="7">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12">
+        <v>42022.0</v>
+      </c>
+      <c r="B19" s="7">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>42023.0</v>
+      </c>
+      <c r="B20" s="7">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12">
+        <v>42024.0</v>
+      </c>
+      <c r="B21" s="7">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>42025.0</v>
+      </c>
+      <c r="B22" s="7">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12">
+        <v>42026.0</v>
+      </c>
+      <c r="B23" s="7">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>42027.0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12">
+        <v>42028.0</v>
+      </c>
+      <c r="B25" s="7">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>42029.0</v>
+      </c>
+      <c r="B26" s="7">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12">
+        <v>42030.0</v>
+      </c>
+      <c r="B27" s="7">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>42031.0</v>
+      </c>
+      <c r="B28" s="7">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12">
+        <v>42032.0</v>
+      </c>
+      <c r="B29" s="7">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>42033.0</v>
+      </c>
+      <c r="B30" s="7">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12">
+        <v>42034.0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>42035.0</v>
+      </c>
+      <c r="B32" s="7">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12">
+        <v>42036.0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>42037.0</v>
+      </c>
+      <c r="B34" s="7">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12">
+        <v>42038.0</v>
+      </c>
+      <c r="B35" s="7">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12">
+        <v>42039.0</v>
+      </c>
+      <c r="B36" s="7">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12">
+        <v>42040.0</v>
+      </c>
+      <c r="B37" s="7">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12">
+        <v>42041.0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12">
+        <v>42042.0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12">
+        <v>42043.0</v>
+      </c>
+      <c r="B40" s="7">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12">
+        <v>42044.0</v>
+      </c>
+      <c r="B41" s="7">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12">
+        <v>42045.0</v>
+      </c>
+      <c r="B42" s="7">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12">
+        <v>42046.0</v>
+      </c>
+      <c r="B43" s="7">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12">
+        <v>42047.0</v>
+      </c>
+      <c r="B44" s="7">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12">
+        <v>42048.0</v>
+      </c>
+      <c r="B45" s="7">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12">
+        <v>42049.0</v>
+      </c>
+      <c r="B46" s="7">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12">
+        <v>42050.0</v>
+      </c>
+      <c r="B47" s="7">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12">
+        <v>42051.0</v>
+      </c>
+      <c r="B48" s="7">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12">
+        <v>42052.0</v>
+      </c>
+      <c r="B49" s="7">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12">
+        <v>42053.0</v>
+      </c>
+      <c r="B50" s="7">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12">
+        <v>42054.0</v>
+      </c>
+      <c r="B51" s="7">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12">
+        <v>42055.0</v>
+      </c>
+      <c r="B52" s="7">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12">
+        <v>42056.0</v>
+      </c>
+      <c r="B53" s="7">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12">
+        <v>42057.0</v>
+      </c>
+      <c r="B54" s="7">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12">
+        <v>42058.0</v>
+      </c>
+      <c r="B55" s="7">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12">
+        <v>42059.0</v>
+      </c>
+      <c r="B56" s="7">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12">
+        <v>42060.0</v>
+      </c>
+      <c r="B57" s="7">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12">
+        <v>42061.0</v>
+      </c>
+      <c r="B58" s="7">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12">
+        <v>42062.0</v>
+      </c>
+      <c r="B59" s="7">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12">
+        <v>42063.0</v>
+      </c>
+      <c r="B60" s="7">
+        <v>19.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="17.71"/>
+    <col customWidth="1" min="5" max="5" width="28.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
+        <v>41640.0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2420.0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D25" si="1">B2/C2</f>
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E24" si="2">D3-D2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>41671.0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4000.0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>41699.0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5832.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>41730.0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9600.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>41760.0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>13230.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>41791.0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>16400.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>820</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>41821.0</v>
+      </c>
+      <c r="B8" s="7">
+        <v>22264.0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>41852.0</v>
+      </c>
+      <c r="B9" s="7">
+        <v>26019.0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1239</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>41883.0</v>
+      </c>
+      <c r="B10" s="7">
+        <v>32428.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1474</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>41913.0</v>
+      </c>
+      <c r="B11" s="7">
+        <v>40204.0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1748</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>41944.0</v>
+      </c>
+      <c r="B12" s="7">
+        <v>40400.0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>41974.0</v>
+      </c>
+      <c r="B13" s="7">
+        <v>50820.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2310</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>42005.0</v>
+      </c>
+      <c r="B14" s="7">
+        <v>54684.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2604</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>42036.0</v>
+      </c>
+      <c r="B15" s="7">
+        <v>49708.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2924</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>42064.0</v>
+      </c>
+      <c r="B16" s="7">
+        <v>71632.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>3256</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>42095.0</v>
+      </c>
+      <c r="B17" s="7">
+        <v>72400.0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>3620</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>42125.0</v>
+      </c>
+      <c r="B18" s="7">
+        <v>80000.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>42156.0</v>
+      </c>
+      <c r="B19" s="7">
+        <v>92610.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4410</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>42186.0</v>
+      </c>
+      <c r="B20" s="7">
+        <v>106480.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>4840</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>42217.0</v>
+      </c>
+      <c r="B21" s="7">
+        <v>110691.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>5271</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>42248.0</v>
+      </c>
+      <c r="B22" s="7">
+        <v>120393.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>5733</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>42278.0</v>
+      </c>
+      <c r="B23" s="7">
+        <v>130536.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>6216</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>42309.0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>134000.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>6700</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>42339.0</v>
+      </c>
+      <c r="B25" s="7">
+        <v>158752.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>7216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="N27" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 1 - Alura.xlsx
+++ b/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 1 - Alura.xlsx
@@ -8,6 +8,8 @@
     <sheet state="visible" name="Seguidores Twitter" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="Vendas Quantidade por dia" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Vendas em R$" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Visitantes no Site por dia" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Visitantes do Site - Feriados" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,9 +17,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Mês</t>
+  </si>
+  <si>
+    <t>Vendas em mil R$</t>
+  </si>
+  <si>
+    <t>Assinatura Newsletter</t>
+  </si>
+  <si>
+    <t>Aumento das Vendas</t>
+  </si>
+  <si>
+    <t>Aumento no número de assinantes</t>
+  </si>
+  <si>
+    <t>Aceleração das Vendas</t>
+  </si>
+  <si>
+    <t>Aceleração no número de assinantes</t>
   </si>
   <si>
     <t>Seguidores no Twitter</t>
@@ -29,31 +49,16 @@
     <t>Aceleração dos seguidores no Twitter</t>
   </si>
   <si>
-    <t>Vendas em mil R$</t>
-  </si>
-  <si>
-    <t>Aumento das Vendas</t>
-  </si>
-  <si>
-    <t>Aceleração das Vendas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Assinatura Newsletter</t>
-  </si>
-  <si>
-    <t>Aumento no número de assinantes</t>
-  </si>
-  <si>
-    <t>Aceleração no número de assinantes</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
     <t>Vendas Quantidade de produto vendido</t>
+  </si>
+  <si>
+    <t>Visitantes no Site</t>
   </si>
   <si>
     <t>Vendas em R$</t>
@@ -66,6 +71,12 @@
   </si>
   <si>
     <t>Aumento de Vendas por dia útil</t>
+  </si>
+  <si>
+    <t>Fins de semana</t>
+  </si>
+  <si>
+    <t>Visitantes no site por dia de FDS</t>
   </si>
 </sst>
 </file>
@@ -84,15 +95,15 @@
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,40 +119,47 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -204,11 +222,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1956541801"/>
-        <c:axId val="1919053557"/>
+        <c:axId val="1622642483"/>
+        <c:axId val="131840985"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1956541801"/>
+        <c:axId val="1622642483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,10 +258,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1919053557"/>
+        <c:crossAx val="131840985"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1919053557"/>
+        <c:axId val="131840985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -291,7 +309,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1956541801"/>
+        <c:crossAx val="1622642483"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -357,11 +375,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1958910643"/>
-        <c:axId val="1234859363"/>
+        <c:axId val="510189884"/>
+        <c:axId val="1717536938"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1958910643"/>
+        <c:axId val="510189884"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,10 +411,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1234859363"/>
+        <c:crossAx val="1717536938"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1234859363"/>
+        <c:axId val="1717536938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +462,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1958910643"/>
+        <c:crossAx val="510189884"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -510,11 +528,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="413435579"/>
-        <c:axId val="980687328"/>
+        <c:axId val="1953491490"/>
+        <c:axId val="814606851"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413435579"/>
+        <c:axId val="1953491490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,10 +564,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="980687328"/>
+        <c:crossAx val="814606851"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="980687328"/>
+        <c:axId val="814606851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +615,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413435579"/>
+        <c:crossAx val="1953491490"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -658,11 +676,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1139149712"/>
-        <c:axId val="796959784"/>
+        <c:axId val="1015789096"/>
+        <c:axId val="962681618"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1139149712"/>
+        <c:axId val="1015789096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,10 +712,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796959784"/>
+        <c:crossAx val="962681618"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="796959784"/>
+        <c:axId val="962681618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +763,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1139149712"/>
+        <c:crossAx val="1015789096"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -806,11 +824,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1536904721"/>
-        <c:axId val="1291302756"/>
+        <c:axId val="834730520"/>
+        <c:axId val="2042641775"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1536904721"/>
+        <c:axId val="834730520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,10 +860,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1291302756"/>
+        <c:crossAx val="2042641775"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1291302756"/>
+        <c:axId val="2042641775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +911,461 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1536904721"/>
+        <c:crossAx val="834730520"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Visitantes no Site por dia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitantes no Site por dia'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Visitantes no Site por dia'!$A$2:$A$60</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitantes no Site por dia'!$B$2:$B$60</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1839718807"/>
+        <c:axId val="1732937431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1839718807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732937431"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1732937431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Visitantes no Site</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839718807"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Visitantes no Site por Mês</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitantes do Site - Feriados'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Visitantes do Site - Feriados'!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitantes do Site - Feriados'!$B$2:$B$25</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="17302885"/>
+        <c:axId val="1138613855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="17302885"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138613855"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1138613855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Visitantes no Site</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17302885"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Visitantes no site por dia de Final de Semana por mês</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitantes do Site - Feriados'!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitantes do Site - Feriados'!$D$2:$D$25</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="369925542"/>
+        <c:axId val="806527732"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="369925542"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="806527732"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="806527732"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Visitantes </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369925542"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -954,11 +1426,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="461092183"/>
-        <c:axId val="1927993042"/>
+        <c:axId val="1809671012"/>
+        <c:axId val="451687641"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="461092183"/>
+        <c:axId val="1809671012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,10 +1462,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1927993042"/>
+        <c:crossAx val="451687641"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1927993042"/>
+        <c:axId val="451687641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461092183"/>
+        <c:crossAx val="1809671012"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1102,11 +1574,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2020559538"/>
-        <c:axId val="570560958"/>
+        <c:axId val="1257838204"/>
+        <c:axId val="1250728994"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2020559538"/>
+        <c:axId val="1257838204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,10 +1593,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570560958"/>
+        <c:crossAx val="1250728994"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="570560958"/>
+        <c:axId val="1250728994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1644,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2020559538"/>
+        <c:crossAx val="1257838204"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1238,11 +1710,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1714166508"/>
-        <c:axId val="1425428686"/>
+        <c:axId val="1711947883"/>
+        <c:axId val="474559585"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1714166508"/>
+        <c:axId val="1711947883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,10 +1746,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425428686"/>
+        <c:crossAx val="474559585"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1425428686"/>
+        <c:axId val="474559585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1797,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714166508"/>
+        <c:crossAx val="1711947883"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1386,11 +1858,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2044307724"/>
-        <c:axId val="450478907"/>
+        <c:axId val="1675021992"/>
+        <c:axId val="1990514452"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044307724"/>
+        <c:axId val="1675021992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,10 +1894,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450478907"/>
+        <c:crossAx val="1990514452"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450478907"/>
+        <c:axId val="1990514452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1945,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044307724"/>
+        <c:crossAx val="1675021992"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1534,11 +2006,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1353107793"/>
-        <c:axId val="810362021"/>
+        <c:axId val="2008176081"/>
+        <c:axId val="1192638292"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1353107793"/>
+        <c:axId val="2008176081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,10 +2042,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="810362021"/>
+        <c:crossAx val="1192638292"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="810362021"/>
+        <c:axId val="1192638292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +2093,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1353107793"/>
+        <c:crossAx val="2008176081"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1687,11 +2159,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="392453147"/>
-        <c:axId val="1721431495"/>
+        <c:axId val="938777847"/>
+        <c:axId val="185336871"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392453147"/>
+        <c:axId val="938777847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,10 +2195,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1721431495"/>
+        <c:crossAx val="185336871"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1721431495"/>
+        <c:axId val="185336871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +2246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392453147"/>
+        <c:crossAx val="938777847"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1835,11 +2307,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43107687"/>
-        <c:axId val="461623412"/>
+        <c:axId val="2059037963"/>
+        <c:axId val="1968195932"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43107687"/>
+        <c:axId val="2059037963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,10 +2343,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461623412"/>
+        <c:crossAx val="1968195932"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461623412"/>
+        <c:axId val="1968195932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +2394,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43107687"/>
+        <c:crossAx val="2059037963"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1983,11 +2455,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1918175821"/>
-        <c:axId val="1983136492"/>
+        <c:axId val="1962318336"/>
+        <c:axId val="1576374343"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1918175821"/>
+        <c:axId val="1962318336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,10 +2491,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1983136492"/>
+        <c:crossAx val="1576374343"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1983136492"/>
+        <c:axId val="1576374343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2542,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1918175821"/>
+        <c:crossAx val="1962318336"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2119,7 +2591,7 @@
     <xdr:ext cx="6115050" cy="2600325"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2144,7 +2616,7 @@
     <xdr:ext cx="6143625" cy="2543175"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
+        <xdr:cNvPr id="7" name="Chart 7" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2199,7 +2671,7 @@
     <xdr:ext cx="7762875" cy="2905125"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2224,7 +2696,7 @@
     <xdr:ext cx="7820025" cy="2495550"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8" title="Gráfico"/>
+        <xdr:cNvPr id="7" name="Chart 7" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2254,7 +2726,7 @@
     <xdr:ext cx="7191375" cy="2705100"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2279,7 +2751,7 @@
     <xdr:ext cx="7029450" cy="2743200"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2304,7 +2776,7 @@
     <xdr:ext cx="7143750" cy="2847975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 7" title="Gráfico"/>
+        <xdr:cNvPr id="8" name="Chart 8" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2334,7 +2806,7 @@
     <xdr:ext cx="8724900" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 10" title="Gráfico"/>
+        <xdr:cNvPr id="11" name="Chart 11" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2389,7 +2861,7 @@
     <xdr:ext cx="7181850" cy="2790825"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 11" title="Gráfico"/>
+        <xdr:cNvPr id="12" name="Chart 12" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2414,7 +2886,7 @@
     <xdr:ext cx="7191375" cy="2800350"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 12" title="Gráfico"/>
+        <xdr:cNvPr id="13" name="Chart 13" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2424,6 +2896,91 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7181850" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 10" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7743825" cy="3324225"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 14" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7848600" cy="2705100"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 15" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2447,24 +3004,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>10.0</v>
       </c>
       <c r="C2">
@@ -2477,10 +3034,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>41671.0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>20.0</v>
       </c>
       <c r="C3">
@@ -2493,10 +3050,10 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>41699.0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>33.0</v>
       </c>
       <c r="C4">
@@ -2509,10 +3066,10 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>41730.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>47.0</v>
       </c>
       <c r="C5">
@@ -2525,10 +3082,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>41760.0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>63.0</v>
       </c>
       <c r="C6">
@@ -2541,10 +3098,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>41791.0</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>81.0</v>
       </c>
       <c r="C7">
@@ -2557,10 +3114,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>41821.0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>101.0</v>
       </c>
       <c r="C8">
@@ -2573,10 +3130,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>41852.0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>124.0</v>
       </c>
       <c r="C9">
@@ -2589,10 +3146,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>41883.0</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>148.0</v>
       </c>
       <c r="C10">
@@ -2605,10 +3162,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>41913.0</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>174.0</v>
       </c>
       <c r="C11">
@@ -2621,10 +3178,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>41944.0</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>201.0</v>
       </c>
       <c r="C12">
@@ -2637,10 +3194,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>41974.0</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>230.0</v>
       </c>
       <c r="C13">
@@ -2653,10 +3210,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>261.0</v>
       </c>
       <c r="C14">
@@ -2669,10 +3226,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>42036.0</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>293.0</v>
       </c>
       <c r="C15">
@@ -2685,10 +3242,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>42064.0</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>326.0</v>
       </c>
       <c r="C16">
@@ -2701,10 +3258,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>42095.0</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>362.0</v>
       </c>
       <c r="C17">
@@ -2717,10 +3274,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>42125.0</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>400.0</v>
       </c>
       <c r="C18">
@@ -2733,10 +3290,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>42156.0</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>440.0</v>
       </c>
       <c r="C19">
@@ -2749,10 +3306,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>42186.0</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>483.0</v>
       </c>
       <c r="C20">
@@ -2765,10 +3322,10 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>42217.0</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>527.0</v>
       </c>
       <c r="C21">
@@ -2781,10 +3338,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>42248.0</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>573.0</v>
       </c>
       <c r="C22">
@@ -2797,10 +3354,10 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>42278.0</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>621.0</v>
       </c>
       <c r="C23">
@@ -2812,14 +3369,14 @@
         <v>2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>42309.0</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>670.0</v>
       </c>
       <c r="C24">
@@ -2828,612 +3385,612 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>42339.0</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>721.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="8"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="8"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="8"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="8"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="8"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="8"/>
+      <c r="A49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="8"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="8"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="8"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="8"/>
+      <c r="A53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="8"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="8"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="8"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="8"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="8"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="8"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="8"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="8"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="8"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="8"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="8"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="8"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="8"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="8"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="8"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="8"/>
+      <c r="A69" s="6"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="8"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="8"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="8"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="8"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="8"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="8"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="8"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="8"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="8"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="8"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="8"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="8"/>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="8"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="8"/>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="8"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="8"/>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="8"/>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="8"/>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="8"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="8"/>
+      <c r="A89" s="6"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="8"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="8"/>
+      <c r="A91" s="6"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="8"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="8"/>
+      <c r="A93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="8"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="8"/>
+      <c r="A95" s="6"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="8"/>
+      <c r="A96" s="6"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="8"/>
+      <c r="A97" s="6"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="8"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="8"/>
+      <c r="A99" s="6"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="8"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="8"/>
+      <c r="A101" s="6"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="8"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="8"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="8"/>
+      <c r="A104" s="6"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="8"/>
+      <c r="A105" s="6"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="8"/>
+      <c r="A106" s="6"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="8"/>
+      <c r="A107" s="6"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="8"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="8"/>
+      <c r="A109" s="6"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="8"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="8"/>
+      <c r="A111" s="6"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="8"/>
+      <c r="A112" s="6"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="8"/>
+      <c r="A113" s="6"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="8"/>
+      <c r="A114" s="6"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="8"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="8"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="8"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="8"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="8"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="8"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="8"/>
+      <c r="A121" s="6"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="8"/>
+      <c r="A122" s="6"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="8"/>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="8"/>
+      <c r="A124" s="6"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="8"/>
+      <c r="A125" s="6"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="8"/>
+      <c r="A126" s="6"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="8"/>
+      <c r="A127" s="6"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="8"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="8"/>
+      <c r="A129" s="6"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="8"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="8"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="8"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="8"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="8"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="8"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="8"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="8"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="8"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="8"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="8"/>
+      <c r="A140" s="6"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="8"/>
+      <c r="A141" s="6"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="8"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="8"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="8"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="8"/>
+      <c r="A145" s="6"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="8"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="8"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="8"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="8"/>
+      <c r="A149" s="6"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="8"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="8"/>
+      <c r="A151" s="6"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="8"/>
+      <c r="A152" s="6"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="8"/>
+      <c r="A153" s="6"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="8"/>
+      <c r="A154" s="6"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="8"/>
+      <c r="A155" s="6"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="8"/>
+      <c r="A156" s="6"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="8"/>
+      <c r="A157" s="6"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="8"/>
+      <c r="A158" s="6"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="8"/>
+      <c r="A159" s="6"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="8"/>
+      <c r="A160" s="6"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="8"/>
+      <c r="A161" s="6"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="8"/>
+      <c r="A162" s="6"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="8"/>
+      <c r="A163" s="6"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="8"/>
+      <c r="A164" s="6"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="8"/>
+      <c r="A165" s="6"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="8"/>
+      <c r="A166" s="6"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="8"/>
+      <c r="A167" s="6"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="8"/>
+      <c r="A168" s="6"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="8"/>
+      <c r="A169" s="6"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="8"/>
+      <c r="A170" s="6"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="8"/>
+      <c r="A171" s="6"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="8"/>
+      <c r="A172" s="6"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="8"/>
+      <c r="A173" s="6"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="8"/>
+      <c r="A174" s="6"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="8"/>
+      <c r="A175" s="6"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="8"/>
+      <c r="A176" s="6"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="8"/>
+      <c r="A177" s="6"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="8"/>
+      <c r="A178" s="6"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="8"/>
+      <c r="A179" s="6"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="8"/>
+      <c r="A180" s="6"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="8"/>
+      <c r="A181" s="6"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="8"/>
+      <c r="A182" s="6"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="8"/>
+      <c r="A183" s="6"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="8"/>
+      <c r="A184" s="6"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="8"/>
+      <c r="A185" s="6"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="8"/>
+      <c r="A186" s="6"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="8"/>
+      <c r="A187" s="6"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="8"/>
+      <c r="A188" s="6"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="8"/>
+      <c r="A189" s="6"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="8"/>
+      <c r="A190" s="6"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="8"/>
+      <c r="A191" s="6"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="8"/>
+      <c r="A192" s="6"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="8"/>
+      <c r="A193" s="6"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="8"/>
+      <c r="A194" s="6"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="8"/>
+      <c r="A195" s="6"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="8"/>
+      <c r="A196" s="6"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="8"/>
+      <c r="A197" s="6"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="8"/>
+      <c r="A198" s="6"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="8"/>
+      <c r="A199" s="6"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="8"/>
+      <c r="A200" s="6"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="8"/>
+      <c r="A201" s="6"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="8"/>
+      <c r="A202" s="6"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="8"/>
+      <c r="A203" s="6"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="8"/>
+      <c r="A204" s="6"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="8"/>
+      <c r="A205" s="6"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="8"/>
+      <c r="A206" s="6"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="8"/>
+      <c r="A207" s="6"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="8"/>
+      <c r="A208" s="6"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="8"/>
+      <c r="A209" s="6"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="8"/>
+      <c r="A210" s="6"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="8"/>
+      <c r="A211" s="6"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="8"/>
+      <c r="A212" s="6"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="8"/>
+      <c r="A213" s="6"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="8"/>
+      <c r="A214" s="6"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="8"/>
+      <c r="A215" s="6"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="8"/>
+      <c r="A216" s="6"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="8"/>
+      <c r="A217" s="6"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="8"/>
+      <c r="A218" s="6"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="8"/>
+      <c r="A219" s="6"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="8"/>
+      <c r="A220" s="6"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="8"/>
+      <c r="A221" s="6"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="8"/>
+      <c r="A222" s="6"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="8"/>
+      <c r="A223" s="6"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="8"/>
+      <c r="A224" s="6"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="8"/>
+      <c r="A225" s="6"/>
     </row>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -4231,24 +4788,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>0.0</v>
       </c>
       <c r="C2">
@@ -4261,10 +4818,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>41671.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>10.0</v>
       </c>
       <c r="C3">
@@ -4277,10 +4834,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>41699.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>21.0</v>
       </c>
       <c r="C4">
@@ -4293,10 +4850,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>41730.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>34.0</v>
       </c>
       <c r="C5">
@@ -4309,10 +4866,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <v>41760.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>49.0</v>
       </c>
       <c r="C6">
@@ -4325,10 +4882,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>41791.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>66.0</v>
       </c>
       <c r="C7">
@@ -4341,10 +4898,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>41821.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>85.0</v>
       </c>
       <c r="C8">
@@ -4357,10 +4914,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="8">
         <v>41852.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>107.0</v>
       </c>
       <c r="C9">
@@ -4373,10 +4930,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>41883.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>132.0</v>
       </c>
       <c r="C10">
@@ -4389,10 +4946,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>41913.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>160.0</v>
       </c>
       <c r="C11">
@@ -4405,10 +4962,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="8">
         <v>41944.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>190.0</v>
       </c>
       <c r="C12">
@@ -4421,10 +4978,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>41974.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>221.0</v>
       </c>
       <c r="C13">
@@ -4437,10 +4994,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>252.0</v>
       </c>
       <c r="C14">
@@ -4453,10 +5010,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>42036.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>283.0</v>
       </c>
       <c r="C15">
@@ -4469,10 +5026,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>42064.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>313.0</v>
       </c>
       <c r="C16">
@@ -4485,10 +5042,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>42095.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>341.0</v>
       </c>
       <c r="C17">
@@ -4501,10 +5058,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>42125.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>367.0</v>
       </c>
       <c r="C18">
@@ -4517,10 +5074,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>42156.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>390.0</v>
       </c>
       <c r="C19">
@@ -4533,10 +5090,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="8">
         <v>42186.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>410.0</v>
       </c>
       <c r="C20">
@@ -4549,10 +5106,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="8">
         <v>42217.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>426.0</v>
       </c>
       <c r="C21">
@@ -4565,10 +5122,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>42248.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>437.0</v>
       </c>
       <c r="C22">
@@ -4581,10 +5138,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="8">
         <v>42278.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>444.0</v>
       </c>
       <c r="C23">
@@ -4597,10 +5154,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="8">
         <v>42309.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>449.0</v>
       </c>
       <c r="C24">
@@ -4609,10 +5166,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="8">
         <v>42339.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>454.0</v>
       </c>
     </row>
@@ -4637,24 +5194,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>0.0</v>
       </c>
       <c r="C2">
@@ -4667,10 +5224,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>41671.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>5.0</v>
       </c>
       <c r="C3">
@@ -4683,10 +5240,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>41699.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>11.0</v>
       </c>
       <c r="C4">
@@ -4699,10 +5256,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>41730.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>19.0</v>
       </c>
       <c r="C5">
@@ -4715,10 +5272,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <v>41760.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>24.0</v>
       </c>
       <c r="C6">
@@ -4731,10 +5288,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>41791.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>29.0</v>
       </c>
       <c r="C7">
@@ -4747,10 +5304,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>41821.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>31.0</v>
       </c>
       <c r="C8">
@@ -4763,10 +5320,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="8">
         <v>41852.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>37.0</v>
       </c>
       <c r="C9">
@@ -4779,10 +5336,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>41883.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>47.0</v>
       </c>
       <c r="C10">
@@ -4795,10 +5352,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>41913.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>62.0</v>
       </c>
       <c r="C11">
@@ -4811,10 +5368,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="8">
         <v>41944.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>79.0</v>
       </c>
       <c r="C12">
@@ -4827,10 +5384,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>41974.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>99.0</v>
       </c>
       <c r="C13">
@@ -4843,10 +5400,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>119.0</v>
       </c>
       <c r="C14">
@@ -4859,10 +5416,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>42036.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>142.0</v>
       </c>
       <c r="C15">
@@ -4875,10 +5432,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>42064.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>165.0</v>
       </c>
       <c r="C16">
@@ -4891,10 +5448,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>42095.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>183.0</v>
       </c>
       <c r="C17">
@@ -4907,10 +5464,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>42125.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>203.0</v>
       </c>
       <c r="C18">
@@ -4923,10 +5480,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>42156.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>225.0</v>
       </c>
       <c r="C19">
@@ -4939,10 +5496,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="8">
         <v>42186.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>244.0</v>
       </c>
       <c r="C20">
@@ -4955,10 +5512,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="8">
         <v>42217.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>262.0</v>
       </c>
       <c r="C21">
@@ -4971,10 +5528,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>42248.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>282.0</v>
       </c>
       <c r="C22">
@@ -4987,10 +5544,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="8">
         <v>42278.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>301.0</v>
       </c>
       <c r="C23">
@@ -5003,10 +5560,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="8">
         <v>42309.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>325.0</v>
       </c>
       <c r="C24">
@@ -5015,10 +5572,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="8">
         <v>42339.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>351.0</v>
       </c>
     </row>
@@ -5041,482 +5598,482 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>42005.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>51.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>42006.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>54.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>42007.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>18.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>42008.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>19.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>42009.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>57.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>42010.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>58.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <v>42011.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>53.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>42012.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>59.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>42013.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>58.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>42014.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>14.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>42015.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>17.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>42016.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>55.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>42017.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>56.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12">
+      <c r="A15" s="14">
         <v>42018.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>59.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12">
+      <c r="A16" s="14">
         <v>42019.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>51.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12">
+      <c r="A17" s="14">
         <v>42020.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>58.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12">
+      <c r="A18" s="14">
         <v>42021.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>14.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12">
+      <c r="A19" s="14">
         <v>42022.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>20.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12">
+      <c r="A20" s="14">
         <v>42023.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>59.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12">
+      <c r="A21" s="14">
         <v>42024.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>56.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12">
+      <c r="A22" s="14">
         <v>42025.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>55.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12">
+      <c r="A23" s="14">
         <v>42026.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>58.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12">
+      <c r="A24" s="14">
         <v>42027.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>51.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12">
+      <c r="A25" s="14">
         <v>42028.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>18.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12">
+      <c r="A26" s="14">
         <v>42029.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>13.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12">
+      <c r="A27" s="14">
         <v>42030.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>55.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12">
+      <c r="A28" s="14">
         <v>42031.0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>50.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12">
+      <c r="A29" s="14">
         <v>42032.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>55.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12">
+      <c r="A30" s="14">
         <v>42033.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>53.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12">
+      <c r="A31" s="14">
         <v>42034.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>57.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12">
+      <c r="A32" s="14">
         <v>42035.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>12.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12">
+      <c r="A33" s="14">
         <v>42036.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>18.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12">
+      <c r="A34" s="14">
         <v>42037.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>58.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12">
+      <c r="A35" s="14">
         <v>42038.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>55.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12">
+      <c r="A36" s="14">
         <v>42039.0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>51.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12">
+      <c r="A37" s="14">
         <v>42040.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>56.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12">
+      <c r="A38" s="14">
         <v>42041.0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="9">
         <v>51.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12">
+      <c r="A39" s="14">
         <v>42042.0</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>17.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12">
+      <c r="A40" s="14">
         <v>42043.0</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>11.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12">
+      <c r="A41" s="14">
         <v>42044.0</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="9">
         <v>50.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12">
+      <c r="A42" s="14">
         <v>42045.0</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="9">
         <v>53.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12">
+      <c r="A43" s="14">
         <v>42046.0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="9">
         <v>51.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12">
+      <c r="A44" s="14">
         <v>42047.0</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="9">
         <v>55.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12">
+      <c r="A45" s="14">
         <v>42048.0</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>59.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12">
+      <c r="A46" s="14">
         <v>42049.0</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="9">
         <v>12.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12">
+      <c r="A47" s="14">
         <v>42050.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="9">
         <v>18.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="12">
+      <c r="A48" s="14">
         <v>42051.0</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="9">
         <v>57.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12">
+      <c r="A49" s="14">
         <v>42052.0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="9">
         <v>51.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12">
+      <c r="A50" s="14">
         <v>42053.0</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="9">
         <v>54.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12">
+      <c r="A51" s="14">
         <v>42054.0</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="9">
         <v>60.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12">
+      <c r="A52" s="14">
         <v>42055.0</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="9">
         <v>53.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12">
+      <c r="A53" s="14">
         <v>42056.0</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="9">
         <v>17.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="12">
+      <c r="A54" s="14">
         <v>42057.0</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="9">
         <v>13.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12">
+      <c r="A55" s="14">
         <v>42058.0</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="9">
         <v>58.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="12">
+      <c r="A56" s="14">
         <v>42059.0</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="9">
         <v>52.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12">
+      <c r="A57" s="14">
         <v>42060.0</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="9">
         <v>56.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12">
+      <c r="A58" s="14">
         <v>42061.0</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="9">
         <v>56.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12">
+      <c r="A59" s="14">
         <v>42062.0</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="9">
         <v>56.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12">
+      <c r="A60" s="14">
         <v>42063.0</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="9">
         <v>19.0</v>
       </c>
     </row>
@@ -5540,30 +6097,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>2420.0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>22.0</v>
       </c>
       <c r="D2">
@@ -5576,13 +6133,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>41671.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>4000.0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>20.0</v>
       </c>
       <c r="D3">
@@ -5595,13 +6152,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>41699.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>5832.0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>18.0</v>
       </c>
       <c r="D4">
@@ -5614,13 +6171,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>41730.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>9600.0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>20.0</v>
       </c>
       <c r="D5">
@@ -5633,13 +6190,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <v>41760.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>13230.0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>21.0</v>
       </c>
       <c r="D6">
@@ -5652,13 +6209,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>41791.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>16400.0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>20.0</v>
       </c>
       <c r="D7">
@@ -5671,13 +6228,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>41821.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>22264.0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>22.0</v>
       </c>
       <c r="D8">
@@ -5690,13 +6247,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="8">
         <v>41852.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>26019.0</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>21.0</v>
       </c>
       <c r="D9">
@@ -5709,13 +6266,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>41883.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>32428.0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>22.0</v>
       </c>
       <c r="D10">
@@ -5728,13 +6285,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>41913.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>40204.0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>23.0</v>
       </c>
       <c r="D11">
@@ -5747,13 +6304,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="8">
         <v>41944.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>40400.0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>20.0</v>
       </c>
       <c r="D12">
@@ -5766,13 +6323,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>41974.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>50820.0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>22.0</v>
       </c>
       <c r="D13">
@@ -5785,13 +6342,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>54684.0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>21.0</v>
       </c>
       <c r="D14">
@@ -5804,13 +6361,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>42036.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>49708.0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>17.0</v>
       </c>
       <c r="D15">
@@ -5823,13 +6380,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>42064.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>71632.0</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>22.0</v>
       </c>
       <c r="D16">
@@ -5842,13 +6399,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>42095.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>72400.0</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>20.0</v>
       </c>
       <c r="D17">
@@ -5861,13 +6418,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>42125.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>80000.0</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>20.0</v>
       </c>
       <c r="D18">
@@ -5880,13 +6437,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>42156.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>92610.0</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>21.0</v>
       </c>
       <c r="D19">
@@ -5899,13 +6456,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="8">
         <v>42186.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>106480.0</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>22.0</v>
       </c>
       <c r="D20">
@@ -5918,13 +6475,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="8">
         <v>42217.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>110691.0</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>21.0</v>
       </c>
       <c r="D21">
@@ -5937,13 +6494,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>42248.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>120393.0</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>21.0</v>
       </c>
       <c r="D22">
@@ -5956,13 +6513,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="8">
         <v>42278.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>130536.0</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>21.0</v>
       </c>
       <c r="D23">
@@ -5975,13 +6532,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="8">
         <v>42309.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>134000.0</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>20.0</v>
       </c>
       <c r="D24">
@@ -5994,13 +6551,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="8">
         <v>42339.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>158752.0</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>22.0</v>
       </c>
       <c r="D25">
@@ -6010,7 +6567,3719 @@
     </row>
     <row r="27">
       <c r="N27" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13">
+        <v>42005.0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13">
+        <v>42006.0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13">
+        <v>42007.0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13">
+        <v>42008.0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13">
+        <v>42009.0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13">
+        <v>42010.0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13">
+        <v>42011.0</v>
+      </c>
+      <c r="B8" s="9">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13">
+        <v>42012.0</v>
+      </c>
+      <c r="B9" s="9">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13">
+        <v>42013.0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13">
+        <v>42014.0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13">
+        <v>42015.0</v>
+      </c>
+      <c r="B12" s="9">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13">
+        <v>42016.0</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13">
+        <v>42017.0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13">
+        <v>42018.0</v>
+      </c>
+      <c r="B15" s="9">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13">
+        <v>42019.0</v>
+      </c>
+      <c r="B16" s="9">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13">
+        <v>42020.0</v>
+      </c>
+      <c r="B17" s="9">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13">
+        <v>42021.0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13">
+        <v>42022.0</v>
+      </c>
+      <c r="B19" s="9">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13">
+        <v>42023.0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13">
+        <v>42024.0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13">
+        <v>42025.0</v>
+      </c>
+      <c r="B22" s="9">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13">
+        <v>42026.0</v>
+      </c>
+      <c r="B23" s="9">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13">
+        <v>42027.0</v>
+      </c>
+      <c r="B24" s="9">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13">
+        <v>42028.0</v>
+      </c>
+      <c r="B25" s="9">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13">
+        <v>42029.0</v>
+      </c>
+      <c r="B26" s="9">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13">
+        <v>42030.0</v>
+      </c>
+      <c r="B27" s="9">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13">
+        <v>42031.0</v>
+      </c>
+      <c r="B28" s="9">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13">
+        <v>42032.0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="13">
+        <v>42033.0</v>
+      </c>
+      <c r="B30" s="9">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13">
+        <v>42034.0</v>
+      </c>
+      <c r="B31" s="9">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13">
+        <v>42035.0</v>
+      </c>
+      <c r="B32" s="9">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13">
+        <v>42036.0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="13">
+        <v>42037.0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="13">
+        <v>42038.0</v>
+      </c>
+      <c r="B35" s="9">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="13">
+        <v>42039.0</v>
+      </c>
+      <c r="B36" s="9">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="13">
+        <v>42040.0</v>
+      </c>
+      <c r="B37" s="9">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="13">
+        <v>42041.0</v>
+      </c>
+      <c r="B38" s="9">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13">
+        <v>42042.0</v>
+      </c>
+      <c r="B39" s="9">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="13">
+        <v>42043.0</v>
+      </c>
+      <c r="B40" s="9">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="13">
+        <v>42044.0</v>
+      </c>
+      <c r="B41" s="9">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="13">
+        <v>42045.0</v>
+      </c>
+      <c r="B42" s="9">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="13">
+        <v>42046.0</v>
+      </c>
+      <c r="B43" s="9">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="13">
+        <v>42047.0</v>
+      </c>
+      <c r="B44" s="9">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="13">
+        <v>42048.0</v>
+      </c>
+      <c r="B45" s="9">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="13">
+        <v>42049.0</v>
+      </c>
+      <c r="B46" s="9">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="13">
+        <v>42050.0</v>
+      </c>
+      <c r="B47" s="9">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="13">
+        <v>42051.0</v>
+      </c>
+      <c r="B48" s="9">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="13">
+        <v>42052.0</v>
+      </c>
+      <c r="B49" s="9">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="13">
+        <v>42053.0</v>
+      </c>
+      <c r="B50" s="9">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="13">
+        <v>42054.0</v>
+      </c>
+      <c r="B51" s="9">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="13">
+        <v>42055.0</v>
+      </c>
+      <c r="B52" s="9">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="13">
+        <v>42056.0</v>
+      </c>
+      <c r="B53" s="9">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="13">
+        <v>42057.0</v>
+      </c>
+      <c r="B54" s="9">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13">
+        <v>42058.0</v>
+      </c>
+      <c r="B55" s="9">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="13">
+        <v>42059.0</v>
+      </c>
+      <c r="B56" s="9">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="13">
+        <v>42060.0</v>
+      </c>
+      <c r="B57" s="9">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="13">
+        <v>42061.0</v>
+      </c>
+      <c r="B58" s="9">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="13">
+        <v>42062.0</v>
+      </c>
+      <c r="B59" s="9">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="13">
+        <v>42063.0</v>
+      </c>
+      <c r="B60" s="9">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="15"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="15"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="15"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="15"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="15"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="15"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="15"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="15"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="15"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="15"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="15"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="15"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="15"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="15"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="15"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="15"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="15"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="15"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="15"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="15"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="15"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="15"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="15"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="15"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="15"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="15"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="15"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="15"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="15"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="15"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="15"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="15"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="15"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="15"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="15"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="15"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="15"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="15"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="15"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="15"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="15"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="15"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="15"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="15"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="15"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="15"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="15"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="15"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="15"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="15"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="15"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="15"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="15"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="15"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="15"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="15"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="15"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="15"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="15"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="15"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="15"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="15"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="15"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="15"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="15"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="15"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="15"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="15"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="15"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="15"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="15"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="15"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="15"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="15"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="15"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="15"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="15"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="15"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="15"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="15"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="15"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="15"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="15"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="15"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="15"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="15"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="15"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="15"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="15"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="15"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="15"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="15"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="15"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="15"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="15"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="15"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="15"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="15"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="15"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="15"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="15"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="15"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="15"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="15"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="15"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="15"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="15"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="15"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="15"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="15"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="15"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="15"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="15"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="15"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="15"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="15"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="15"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="15"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="15"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="15"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="15"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="15"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="15"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="15"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="15"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="15"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="15"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="15"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="15"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="15"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="15"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="15"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="15"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="15"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="15"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="15"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="15"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="15"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="15"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="15"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="15"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="15"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="15"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="15"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="15"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="15"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="15"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="15"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="15"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="15"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="15"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="15"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="15"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="15"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="15"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="15"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="15"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="15"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="15"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="15"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="15"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="15"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="15"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="15"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="15"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="15"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="15"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="15"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="15"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="15"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="15"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="15"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="15"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="15"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="15"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="15"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="15"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="15"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="15"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="15"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="15"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="15"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="15"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="15"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="15"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="15"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="15"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="15"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="15"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="15"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="15"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="15"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="15"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="15"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="15"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="15"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="15"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="15"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="15"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="15"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="15"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="15"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="15"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="15"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="15"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="15"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="15"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="15"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="15"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="15"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="15"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="15"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="15"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="15"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="15"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="15"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="15"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="15"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="15"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="15"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="15"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="15"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="15"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="15"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="15"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="15"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="15"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="15"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="15"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="15"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="15"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="15"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="15"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="15"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="15"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="15"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="15"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="15"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="15"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="15"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="15"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="15"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="15"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="15"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="15"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="15"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="15"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="15"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="15"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="15"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="15"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="15"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="15"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="15"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="15"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="15"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="15"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="15"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="15"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="15"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="15"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="15"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="15"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="15"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="15"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="15"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="15"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="15"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="15"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="15"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="15"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="15"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="15"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="15"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="15"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="15"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="15"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="15"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="15"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="15"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="15"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="15"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="15"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="15"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="15"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="15"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="15"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="15"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="15"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="15"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="15"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="15"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="15"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="15"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="15"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="15"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="15"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="15"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="15"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="15"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="15"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="15"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="15"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="15"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="15"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="15"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="15"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="15"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="15"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="15"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="15"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="15"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="15"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="15"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="15"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="15"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="15"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="15"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="15"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="15"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="15"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="15"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="15"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="15"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="15"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="15"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="15"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="15"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="15"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="15"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="15"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="15"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="15"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="15"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="15"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="15"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="15"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="15"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="15"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="15"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="15"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="15"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="15"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="15"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="15"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="15"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="15"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="15"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="15"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="15"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="15"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="15"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="15"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="15"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="15"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="15"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="15"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="15"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="15"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="15"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="15"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="15"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="15"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="15"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="15"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="15"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="15"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="15"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="15"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="15"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="15"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="15"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="15"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="15"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="15"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="15"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="15"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="15"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="15"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="15"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="15"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="15"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="15"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="15"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="15"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="15"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="15"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="15"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="15"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="15"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="15"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="15"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="15"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="15"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="15"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="15"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="15"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="15"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="15"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="15"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="15"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="15"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="15"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="15"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="15"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="15"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="15"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="15"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="15"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="15"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="15"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="15"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="15"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="15"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="15"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="15"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="15"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="15"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="15"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="15"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="15"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="15"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="15"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="15"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="15"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="15"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="15"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="15"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="15"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="15"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="15"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="15"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="15"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="15"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="15"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="15"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="15"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="15"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="15"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="15"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="15"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="15"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="15"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="15"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="15"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="15"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="15"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="15"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="15"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="15"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="15"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="15"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="15"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="15"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="15"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="15"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="15"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="15"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="15"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="15"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="15"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="15"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="15"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="15"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="15"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="15"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="15"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="15"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="15"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="15"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="15"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="15"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="15"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="15"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="15"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="15"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="15"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="15"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="15"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="15"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="15"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="15"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="15"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="15"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="15"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="15"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="15"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="15"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="15"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="15"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="15"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="15"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="15"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="15"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="15"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="15"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="15"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="15"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="15"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="15"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="15"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="15"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="15"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="15"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="15"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="15"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="15"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="15"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="15"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="15"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="15"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="15"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="15"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="15"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="15"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="15"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="15"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="15"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="15"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="15"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="15"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="15"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="15"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="15"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="15"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="15"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="15"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="15"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="15"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="15"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="15"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="15"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="15"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="15"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="15"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="15"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="15"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="15"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="15"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="15"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="15"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="15"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="15"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="15"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="15"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="15"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="15"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="15"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="15"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="15"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="15"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="15"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="15"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="15"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="15"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="15"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="15"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="15"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="15"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="15"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="15"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="15"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="15"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="15"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="15"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="15"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="15"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="15"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="15"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="15"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="15"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="15"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="15"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="15"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="15"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="15"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="15"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="15"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="15"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="15"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="15"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="15"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="15"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="15"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="15"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="15"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="15"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="15"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="15"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="15"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="15"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="15"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="15"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="15"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="15"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="15"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="15"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="15"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="15"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="15"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="15"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="15"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="15"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="15"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="15"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="15"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="15"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="15"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="15"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="15"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="15"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="15"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="15"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="15"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="15"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="15"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="15"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="15"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="15"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="15"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="15"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="15"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="15"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="15"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="15"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="15"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="15"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="15"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="15"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="15"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="15"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="15"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="15"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="15"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="15"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="15"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="15"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="15"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="15"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="15"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="15"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="15"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="15"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="15"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="15"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="15"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="15"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="15"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="15"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="15"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="15"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="15"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="15"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="15"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="15"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="15"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="15"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="15"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="15"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="15"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="15"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="15"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="15"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="15"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="15"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="15"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="15"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="15"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="15"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="15"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="15"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="15"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="15"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="15"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="15"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="15"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="15"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="15"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="15"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="15"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="15"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="15"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="15"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="15"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="15"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="15"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="15"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="15"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="15"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="15"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="15"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="15"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="15"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="15"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="15"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="15"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="15"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="15"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="15"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="15"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="15"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="15"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="15"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="15"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="15"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="15"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="15"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="15"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="15"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="15"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="15"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="15"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="15"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="15"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="15"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="15"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="15"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="15"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="15"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="15"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="15"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="15"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="15"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="15"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="15"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="15"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="15"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="15"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="15"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="15"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="15"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="15"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="15"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="15"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="15"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="15"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="15"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="15"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="15"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="15"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="15"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="15"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="15"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="15"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="15"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="15"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="15"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="15"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="15"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="15"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="15"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="15"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="15"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="15"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="15"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="15"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="15"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="15"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="15"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="15"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="15"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="15"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="15"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="15"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="15"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="15"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="15"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="15"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="15"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="15"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="15"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="15"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="15"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="15"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="15"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="15"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="15"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="15"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="15"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="15"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="15"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="15"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="15"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="15"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="15"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="15"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="15"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="15"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="15"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="15"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="15"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="15"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="15"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="15"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="15"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="15"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="15"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="15"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="15"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="15"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="15"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="15"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="15"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="15"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="15"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="15"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="15"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="15"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="15"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="15"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="15"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="15"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="15"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="15"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="15"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="15"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="15"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="15"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="15"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="15"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="15"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="15"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="15"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="15"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="15"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="15"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="15"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="15"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="15"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="15"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="15"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="15"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="15"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="15"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="15"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="15"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="15"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="15"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="15"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="15"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="15"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="15"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="15"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="15"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="15"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="15"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="15"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="15"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="15"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="15"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="15"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="15"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="15"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="15"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="15"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="15"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="15"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="15"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="15"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="15"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="15"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="15"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="15"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="15"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="15"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="15"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="15"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="15"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="15"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="15"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="15"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="15"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="15"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="15"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="15"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="15"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="15"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="15"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="15"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="15"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="15"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="15"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="15"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="15"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="15"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="15"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="15"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="15"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="15"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="15"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="15"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="15"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="15"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="15"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="15"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="15"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="15"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="15"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="15"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="15"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="15"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="15"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="15"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="15"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="15"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="15"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="15"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="15"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="15"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="15"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="15"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="15"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="15"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="15"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="15"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="15"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.57"/>
+    <col customWidth="1" min="3" max="3" width="14.57"/>
+    <col customWidth="1" min="4" max="4" width="30.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>41640.0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>880.0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D25" si="1">B2/C2</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>41671.0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1600.0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>41699.0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3240.0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>41730.0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3840.0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>41760.0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5670.0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>41791.0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7380.0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>41821.0</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8096.0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>41852.0</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12390.0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>41883.0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>11792.0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>41913.0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>13984.0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>41944.0</v>
+      </c>
+      <c r="B12" s="9">
+        <v>20200.0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>41974.0</v>
+      </c>
+      <c r="B13" s="9">
+        <v>18480.0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>42005.0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>23436.0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>42036.0</v>
+      </c>
+      <c r="B15" s="9">
+        <v>23392.0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>42064.0</v>
+      </c>
+      <c r="B16" s="9">
+        <v>29304.0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>42095.0</v>
+      </c>
+      <c r="B17" s="9">
+        <v>28960.0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>42125.0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>40000.0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>42156.0</v>
+      </c>
+      <c r="B19" s="9">
+        <v>35280.0</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8">
+        <v>42186.0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>38720.0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8">
+        <v>42217.0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>52710.0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8">
+        <v>42248.0</v>
+      </c>
+      <c r="B22" s="9">
+        <v>45864.0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8">
+        <v>42278.0</v>
+      </c>
+      <c r="B23" s="9">
+        <v>55944.0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8">
+        <v>42309.0</v>
+      </c>
+      <c r="B24" s="9">
+        <v>60300.0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8">
+        <v>42339.0</v>
+      </c>
+      <c r="B25" s="9">
+        <v>57728.0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>7216</v>
       </c>
     </row>
   </sheetData>
